--- a/figures/yjp-data.xlsx
+++ b/figures/yjp-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="26040" windowHeight="20840" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="14060" windowHeight="12420" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Throughput" sheetId="2" r:id="rId1"/>
@@ -3150,7 +3150,6 @@
       <c:style val="18"/>
     </mc:Fallback>
   </mc:AlternateContent>
-  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -3174,31 +3173,6 @@
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr>
-                    <a:solidFill>
-                      <a:schemeClr val="bg1">
-                        <a:lumMod val="50000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'TPC-DS runs'!$A$2:$A$8</c:f>
@@ -3274,31 +3248,6 @@
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr>
-                    <a:solidFill>
-                      <a:schemeClr val="bg1">
-                        <a:lumMod val="50000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'TPC-DS runs'!$A$2:$A$8</c:f>
@@ -3367,7 +3316,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:gapWidth val="40"/>
         <c:overlap val="-25"/>
         <c:axId val="-2008977656"/>
         <c:axId val="-2037274856"/>
@@ -3424,24 +3373,30 @@
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
-        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
       </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
       <c:layout/>
       <c:overlay val="1"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
 </c:chartSpace>
 </file>
 
@@ -3471,7 +3426,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="179" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -5666,283 +5621,6 @@
 </a:themeOverride>
 </file>
 
-<file path=xl/theme/themeOverride7.xml><?xml version="1.0" encoding="utf-8"?>
-<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <a:clrScheme name="Office">
-    <a:dk1>
-      <a:sysClr val="windowText" lastClr="000000"/>
-    </a:dk1>
-    <a:lt1>
-      <a:sysClr val="window" lastClr="FFFFFF"/>
-    </a:lt1>
-    <a:dk2>
-      <a:srgbClr val="1F497D"/>
-    </a:dk2>
-    <a:lt2>
-      <a:srgbClr val="EEECE1"/>
-    </a:lt2>
-    <a:accent1>
-      <a:srgbClr val="4F81BD"/>
-    </a:accent1>
-    <a:accent2>
-      <a:srgbClr val="C0504D"/>
-    </a:accent2>
-    <a:accent3>
-      <a:srgbClr val="9BBB59"/>
-    </a:accent3>
-    <a:accent4>
-      <a:srgbClr val="8064A2"/>
-    </a:accent4>
-    <a:accent5>
-      <a:srgbClr val="4BACC6"/>
-    </a:accent5>
-    <a:accent6>
-      <a:srgbClr val="F79646"/>
-    </a:accent6>
-    <a:hlink>
-      <a:srgbClr val="0000FF"/>
-    </a:hlink>
-    <a:folHlink>
-      <a:srgbClr val="800080"/>
-    </a:folHlink>
-  </a:clrScheme>
-  <a:fontScheme name="Office">
-    <a:majorFont>
-      <a:latin typeface="Cambria"/>
-      <a:ea typeface=""/>
-      <a:cs typeface=""/>
-      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-      <a:font script="Hang" typeface="맑은 고딕"/>
-      <a:font script="Hans" typeface="宋体"/>
-      <a:font script="Hant" typeface="新細明體"/>
-      <a:font script="Arab" typeface="Times New Roman"/>
-      <a:font script="Hebr" typeface="Times New Roman"/>
-      <a:font script="Thai" typeface="Tahoma"/>
-      <a:font script="Ethi" typeface="Nyala"/>
-      <a:font script="Beng" typeface="Vrinda"/>
-      <a:font script="Gujr" typeface="Shruti"/>
-      <a:font script="Khmr" typeface="MoolBoran"/>
-      <a:font script="Knda" typeface="Tunga"/>
-      <a:font script="Guru" typeface="Raavi"/>
-      <a:font script="Cans" typeface="Euphemia"/>
-      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-      <a:font script="Thaa" typeface="MV Boli"/>
-      <a:font script="Deva" typeface="Mangal"/>
-      <a:font script="Telu" typeface="Gautami"/>
-      <a:font script="Taml" typeface="Latha"/>
-      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-      <a:font script="Orya" typeface="Kalinga"/>
-      <a:font script="Mlym" typeface="Kartika"/>
-      <a:font script="Laoo" typeface="DokChampa"/>
-      <a:font script="Sinh" typeface="Iskoola Pota"/>
-      <a:font script="Mong" typeface="Mongolian Baiti"/>
-      <a:font script="Viet" typeface="Times New Roman"/>
-      <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      <a:font script="Geor" typeface="Sylfaen"/>
-    </a:majorFont>
-    <a:minorFont>
-      <a:latin typeface="Calibri"/>
-      <a:ea typeface=""/>
-      <a:cs typeface=""/>
-      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-      <a:font script="Hang" typeface="맑은 고딕"/>
-      <a:font script="Hans" typeface="宋体"/>
-      <a:font script="Hant" typeface="新細明體"/>
-      <a:font script="Arab" typeface="Arial"/>
-      <a:font script="Hebr" typeface="Arial"/>
-      <a:font script="Thai" typeface="Tahoma"/>
-      <a:font script="Ethi" typeface="Nyala"/>
-      <a:font script="Beng" typeface="Vrinda"/>
-      <a:font script="Gujr" typeface="Shruti"/>
-      <a:font script="Khmr" typeface="DaunPenh"/>
-      <a:font script="Knda" typeface="Tunga"/>
-      <a:font script="Guru" typeface="Raavi"/>
-      <a:font script="Cans" typeface="Euphemia"/>
-      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-      <a:font script="Thaa" typeface="MV Boli"/>
-      <a:font script="Deva" typeface="Mangal"/>
-      <a:font script="Telu" typeface="Gautami"/>
-      <a:font script="Taml" typeface="Latha"/>
-      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-      <a:font script="Orya" typeface="Kalinga"/>
-      <a:font script="Mlym" typeface="Kartika"/>
-      <a:font script="Laoo" typeface="DokChampa"/>
-      <a:font script="Sinh" typeface="Iskoola Pota"/>
-      <a:font script="Mong" typeface="Mongolian Baiti"/>
-      <a:font script="Viet" typeface="Arial"/>
-      <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      <a:font script="Geor" typeface="Sylfaen"/>
-    </a:minorFont>
-  </a:fontScheme>
-  <a:fmtScheme name="Office">
-    <a:fillStyleLst>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:tint val="50000"/>
-              <a:satMod val="300000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="35000">
-            <a:schemeClr val="phClr">
-              <a:tint val="37000"/>
-              <a:satMod val="300000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:tint val="15000"/>
-              <a:satMod val="350000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="16200000" scaled="1"/>
-      </a:gradFill>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:tint val="100000"/>
-              <a:shade val="100000"/>
-              <a:satMod val="130000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:tint val="50000"/>
-              <a:shade val="100000"/>
-              <a:satMod val="350000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="16200000" scaled="0"/>
-      </a:gradFill>
-    </a:fillStyleLst>
-    <a:lnStyleLst>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-            <a:satMod val="105000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="solid"/>
-      </a:ln>
-      <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="solid"/>
-      </a:ln>
-      <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="solid"/>
-      </a:ln>
-    </a:lnStyleLst>
-    <a:effectStyleLst>
-      <a:effectStyle>
-        <a:effectLst>
-          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </a:effectStyle>
-      <a:effectStyle>
-        <a:effectLst>
-          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="35000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </a:effectStyle>
-      <a:effectStyle>
-        <a:effectLst>
-          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="35000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:scene3d>
-          <a:camera prst="orthographicFront">
-            <a:rot lat="0" lon="0" rev="0"/>
-          </a:camera>
-          <a:lightRig rig="threePt" dir="t">
-            <a:rot lat="0" lon="0" rev="1200000"/>
-          </a:lightRig>
-        </a:scene3d>
-        <a:sp3d>
-          <a:bevelT w="63500" h="25400"/>
-        </a:sp3d>
-      </a:effectStyle>
-    </a:effectStyleLst>
-    <a:bgFillStyleLst>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:tint val="40000"/>
-              <a:satMod val="350000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="40000">
-            <a:schemeClr val="phClr">
-              <a:tint val="45000"/>
-              <a:shade val="99000"/>
-              <a:satMod val="350000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:shade val="20000"/>
-              <a:satMod val="255000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-        </a:path>
-      </a:gradFill>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:tint val="80000"/>
-              <a:satMod val="300000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:shade val="30000"/>
-              <a:satMod val="200000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-      </a:gradFill>
-    </a:bgFillStyleLst>
-  </a:fmtScheme>
-</a:themeOverride>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F62"/>
